--- a/list.xlsx
+++ b/list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="110">
   <si>
     <t>Title</t>
   </si>
@@ -757,7 +757,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,13 +934,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -950,8 +956,11 @@
       <c r="J7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>86</v>
       </c>
@@ -970,8 +979,11 @@
       <c r="J8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>68</v>
       </c>
@@ -995,6 +1007,9 @@
       </c>
       <c r="L9" t="s">
         <v>10</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">

--- a/list.xlsx
+++ b/list.xlsx
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="111">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Array and Strings</t>
   </si>
   <si>
@@ -344,12 +341,6 @@
     <t>Subarray</t>
   </si>
   <si>
-    <t>SubC1</t>
-  </si>
-  <si>
-    <t>SubC2</t>
-  </si>
-  <si>
     <t>String Builder</t>
   </si>
   <si>
@@ -357,6 +348,18 @@
   </si>
   <si>
     <t>Recursion</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Category 1</t>
+  </si>
+  <si>
+    <t>Category 2</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +772,7 @@
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="17" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
     <col min="10" max="10" width="7.109375" customWidth="1"/>
     <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -780,63 +783,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -844,42 +847,42 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -887,28 +890,28 @@
     </row>
     <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -916,19 +919,19 @@
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -936,25 +939,25 @@
     </row>
     <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -962,22 +965,22 @@
     </row>
     <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -985,28 +988,28 @@
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1014,1310 +1017,1331 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="4">
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4">
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
-      </c>
-      <c r="D44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E49" s="4">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="4">
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="5">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E61" s="5">
         <v>3</v>
       </c>
       <c r="I61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" s="5">
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E63" s="5">
         <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" s="5">
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="5">
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="5">
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E67" s="5">
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" s="5">
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" s="5">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="5">
         <v>3</v>
       </c>
       <c r="I71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" s="5">
         <v>3</v>
       </c>
       <c r="I72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M73">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="12">
       <filters blank="1"/>
     </filterColumn>
@@ -2393,8 +2417,9 @@
     <hyperlink ref="A57" r:id="rId68"/>
     <hyperlink ref="A58" r:id="rId69"/>
     <hyperlink ref="A68" r:id="rId70"/>
+    <hyperlink ref="L21" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId71"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
--- a/list.xlsx
+++ b/list.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$73</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Title</t>
   </si>
@@ -50,18 +50,9 @@
     <t>Sorting and Searching</t>
   </si>
   <si>
-    <t>Phone Interview</t>
-  </si>
-  <si>
-    <t>Onsite Interview</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Premium Question</t>
-  </si>
-  <si>
     <t>Othres</t>
   </si>
   <si>
@@ -305,9 +296,6 @@
     <t>Trie</t>
   </si>
   <si>
-    <t>Paid</t>
-  </si>
-  <si>
     <t>Kadane</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>String Builder</t>
   </si>
   <si>
-    <t>Repetition</t>
-  </si>
-  <si>
     <t>Recursion</t>
   </si>
   <si>
@@ -360,6 +345,21 @@
   </si>
   <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>On-Site</t>
+  </si>
+  <si>
+    <t>Check back</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Review</t>
   </si>
 </sst>
 </file>
@@ -755,12 +755,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,157 +769,150 @@
     <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="17" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
       <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
       <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -927,117 +920,120 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
       <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
       <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
       </c>
       <c r="I9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
       <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1046,81 +1042,93 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
       <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
       <c r="I13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1128,16 +1136,19 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
       <c r="I15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1146,107 +1157,119 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
       <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="J17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
       <c r="I20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1255,24 +1278,24 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -1280,646 +1303,646 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
       <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
         <v>94</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
       <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="J25" t="s">
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" t="s">
-        <v>9</v>
-      </c>
-      <c r="L32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="4">
-        <v>2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
       <c r="E46" s="4">
         <v>2</v>
       </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
       <c r="I46" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
       <c r="E47" s="4">
         <v>2</v>
       </c>
-      <c r="F47" t="s">
-        <v>9</v>
+      <c r="H47" t="s">
+        <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-      <c r="I48" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="4">
-        <v>2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="G51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
       <c r="E52" s="4">
         <v>2</v>
       </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
       <c r="I52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1928,21 +1951,21 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
       </c>
       <c r="I53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J53" t="s">
-        <v>9</v>
-      </c>
-      <c r="L53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1950,45 +1973,42 @@
       <c r="E54" s="4">
         <v>2</v>
       </c>
+      <c r="H54" t="s">
+        <v>86</v>
+      </c>
       <c r="I54" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
       </c>
       <c r="I55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>9</v>
-      </c>
-      <c r="K55" t="s">
-        <v>9</v>
-      </c>
-      <c r="L55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
         <v>5</v>
@@ -1997,41 +2017,41 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>9</v>
-      </c>
-      <c r="J56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -2040,75 +2060,75 @@
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E59" s="5">
         <v>3</v>
       </c>
       <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" t="s">
+        <v>86</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
         <v>9</v>
-      </c>
-      <c r="G59" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" t="s">
-        <v>89</v>
-      </c>
-      <c r="J59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
       </c>
+      <c r="H60" t="s">
+        <v>86</v>
+      </c>
       <c r="I60" t="s">
-        <v>89</v>
-      </c>
-      <c r="J60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E61" s="5">
         <v>3</v>
       </c>
+      <c r="H61" t="s">
+        <v>86</v>
+      </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -2117,92 +2137,92 @@
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>86</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-      <c r="J62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E63" s="5">
         <v>3</v>
       </c>
+      <c r="H63" t="s">
+        <v>86</v>
+      </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-      <c r="J63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E64" s="5">
         <v>3</v>
       </c>
+      <c r="H64" t="s">
+        <v>86</v>
+      </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-      <c r="J64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E65" s="5">
         <v>3</v>
       </c>
+      <c r="H65" t="s">
+        <v>86</v>
+      </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-      <c r="J65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" t="s">
-        <v>12</v>
       </c>
       <c r="E66" s="5">
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H66" t="s">
+        <v>86</v>
       </c>
       <c r="I66" t="s">
-        <v>89</v>
-      </c>
-      <c r="J66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
@@ -2210,59 +2230,59 @@
       <c r="E67" s="5">
         <v>3</v>
       </c>
+      <c r="H67" t="s">
+        <v>86</v>
+      </c>
       <c r="I67" t="s">
-        <v>89</v>
-      </c>
-      <c r="J67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E68" s="5">
         <v>3</v>
       </c>
       <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
         <v>9</v>
-      </c>
-      <c r="I68" t="s">
-        <v>9</v>
-      </c>
-      <c r="J68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
       </c>
       <c r="E69" s="5">
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H69" t="s">
+        <v>86</v>
       </c>
       <c r="I69" t="s">
-        <v>89</v>
-      </c>
-      <c r="J69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B70" t="s">
         <v>1</v>
@@ -2271,18 +2291,18 @@
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>86</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
-      </c>
-      <c r="J70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -2290,16 +2310,16 @@
       <c r="E71" s="5">
         <v>3</v>
       </c>
+      <c r="H71" t="s">
+        <v>86</v>
+      </c>
       <c r="I71" t="s">
-        <v>89</v>
-      </c>
-      <c r="J71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
@@ -2307,44 +2327,47 @@
       <c r="E72" s="5">
         <v>3</v>
       </c>
+      <c r="H72" t="s">
+        <v>86</v>
+      </c>
       <c r="I72" t="s">
-        <v>89</v>
-      </c>
-      <c r="J72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>86</v>
       </c>
       <c r="I73" t="s">
-        <v>89</v>
-      </c>
-      <c r="J73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M73">
+  <autoFilter ref="A1:K73">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="1"/>
         <filter val="2"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="12">
+    <filterColumn colId="10">
       <filters blank="1"/>
     </filterColumn>
+    <sortState ref="A3:K73">
+      <sortCondition ref="C1:C73"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="A62" r:id="rId1" display=" Merge k Sorted Lists"/>
@@ -2363,7 +2386,7 @@
     <hyperlink ref="A2" r:id="rId14"/>
     <hyperlink ref="A4" r:id="rId15"/>
     <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A30" r:id="rId17"/>
+    <hyperlink ref="A42" r:id="rId17"/>
     <hyperlink ref="A3" r:id="rId18"/>
     <hyperlink ref="A6" r:id="rId19"/>
     <hyperlink ref="A7" r:id="rId20"/>
@@ -2373,7 +2396,7 @@
     <hyperlink ref="A11" r:id="rId24"/>
     <hyperlink ref="A12" r:id="rId25"/>
     <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
     <hyperlink ref="A16" r:id="rId29"/>
     <hyperlink ref="A17" r:id="rId30"/>
@@ -2382,42 +2405,42 @@
     <hyperlink ref="A20" r:id="rId33"/>
     <hyperlink ref="A21" r:id="rId34"/>
     <hyperlink ref="A22" r:id="rId35"/>
-    <hyperlink ref="A23" r:id="rId36"/>
+    <hyperlink ref="A39" r:id="rId36"/>
     <hyperlink ref="A24" r:id="rId37"/>
     <hyperlink ref="A25" r:id="rId38"/>
     <hyperlink ref="A26" r:id="rId39"/>
-    <hyperlink ref="A27" r:id="rId40"/>
-    <hyperlink ref="A28" r:id="rId41"/>
-    <hyperlink ref="A29" r:id="rId42"/>
-    <hyperlink ref="A31" r:id="rId43"/>
-    <hyperlink ref="A32" r:id="rId44"/>
-    <hyperlink ref="A33" r:id="rId45"/>
-    <hyperlink ref="A34" r:id="rId46"/>
-    <hyperlink ref="A35" r:id="rId47"/>
-    <hyperlink ref="A36" r:id="rId48"/>
-    <hyperlink ref="A37" r:id="rId49"/>
-    <hyperlink ref="A38" r:id="rId50"/>
-    <hyperlink ref="A39" r:id="rId51"/>
-    <hyperlink ref="A40" r:id="rId52"/>
-    <hyperlink ref="A41" r:id="rId53"/>
-    <hyperlink ref="A42" r:id="rId54"/>
-    <hyperlink ref="A43" r:id="rId55"/>
-    <hyperlink ref="A44" r:id="rId56"/>
-    <hyperlink ref="A45" r:id="rId57"/>
-    <hyperlink ref="A46" r:id="rId58"/>
-    <hyperlink ref="A47" r:id="rId59"/>
-    <hyperlink ref="A48" r:id="rId60"/>
-    <hyperlink ref="A49" r:id="rId61"/>
-    <hyperlink ref="A50" r:id="rId62"/>
-    <hyperlink ref="A51" r:id="rId63"/>
-    <hyperlink ref="A52" r:id="rId64"/>
+    <hyperlink ref="A40" r:id="rId40"/>
+    <hyperlink ref="A41" r:id="rId41"/>
+    <hyperlink ref="A38" r:id="rId42"/>
+    <hyperlink ref="A36" r:id="rId43"/>
+    <hyperlink ref="A35" r:id="rId44"/>
+    <hyperlink ref="A30" r:id="rId45"/>
+    <hyperlink ref="A31" r:id="rId46"/>
+    <hyperlink ref="A27" r:id="rId47"/>
+    <hyperlink ref="A43" r:id="rId48"/>
+    <hyperlink ref="A44" r:id="rId49"/>
+    <hyperlink ref="A45" r:id="rId50"/>
+    <hyperlink ref="A37" r:id="rId51"/>
+    <hyperlink ref="A33" r:id="rId52"/>
+    <hyperlink ref="A46" r:id="rId53"/>
+    <hyperlink ref="A47" r:id="rId54"/>
+    <hyperlink ref="A32" r:id="rId55"/>
+    <hyperlink ref="A34" r:id="rId56"/>
+    <hyperlink ref="A48" r:id="rId57"/>
+    <hyperlink ref="A49" r:id="rId58"/>
+    <hyperlink ref="A28" r:id="rId59"/>
+    <hyperlink ref="A50" r:id="rId60"/>
+    <hyperlink ref="A51" r:id="rId61"/>
+    <hyperlink ref="A52" r:id="rId62"/>
+    <hyperlink ref="A14" r:id="rId63"/>
+    <hyperlink ref="A23" r:id="rId64"/>
     <hyperlink ref="A53" r:id="rId65"/>
     <hyperlink ref="A55" r:id="rId66"/>
     <hyperlink ref="A56" r:id="rId67"/>
     <hyperlink ref="A57" r:id="rId68"/>
     <hyperlink ref="A58" r:id="rId69"/>
     <hyperlink ref="A68" r:id="rId70"/>
-    <hyperlink ref="L21" r:id="rId71"/>
+    <hyperlink ref="J21" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId72"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -760,7 +760,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,26 +1104,23 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>69</v>
+      <c r="A14" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
+        <v>83</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
@@ -1315,16 +1312,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>7</v>
@@ -1411,46 +1405,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>7</v>
       </c>
       <c r="H28" t="s">
@@ -1459,44 +1447,44 @@
       <c r="I28" t="s">
         <v>7</v>
       </c>
-      <c r="J28" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
+      <c r="A29" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
       </c>
       <c r="E30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
         <v>7</v>
       </c>
       <c r="H30" t="s">
@@ -1508,33 +1496,36 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
       </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
       <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>83</v>
@@ -1542,6 +1533,9 @@
       <c r="E32" s="4">
         <v>2</v>
       </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
       <c r="H32" t="s">
         <v>7</v>
       </c>
@@ -1551,22 +1545,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E33" s="4">
         <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>7</v>
       </c>
       <c r="H33" t="s">
         <v>7</v>
@@ -1577,19 +1568,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
       </c>
       <c r="H34" t="s">
         <v>7</v>
@@ -1600,39 +1588,45 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
       </c>
       <c r="E35" s="4">
         <v>2</v>
       </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
       <c r="H35" t="s">
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
       </c>
       <c r="H36" t="s">
         <v>7</v>
@@ -1643,13 +1637,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -1658,24 +1652,24 @@
         <v>7</v>
       </c>
       <c r="I37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>7</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -1686,13 +1680,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
       </c>
       <c r="H39" t="s">
         <v>7</v>
@@ -1703,13 +1700,19 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
       </c>
       <c r="H40" t="s">
         <v>7</v>
@@ -2366,7 +2369,7 @@
       <filters blank="1"/>
     </filterColumn>
     <sortState ref="A3:K73">
-      <sortCondition ref="C1:C73"/>
+      <sortCondition ref="E1:E73"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -2396,7 +2399,7 @@
     <hyperlink ref="A11" r:id="rId24"/>
     <hyperlink ref="A12" r:id="rId25"/>
     <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A29" r:id="rId27"/>
+    <hyperlink ref="A14" r:id="rId27"/>
     <hyperlink ref="A15" r:id="rId28"/>
     <hyperlink ref="A16" r:id="rId29"/>
     <hyperlink ref="A17" r:id="rId30"/>
@@ -2405,35 +2408,35 @@
     <hyperlink ref="A20" r:id="rId33"/>
     <hyperlink ref="A21" r:id="rId34"/>
     <hyperlink ref="A22" r:id="rId35"/>
-    <hyperlink ref="A39" r:id="rId36"/>
+    <hyperlink ref="A23" r:id="rId36"/>
     <hyperlink ref="A24" r:id="rId37"/>
     <hyperlink ref="A25" r:id="rId38"/>
     <hyperlink ref="A26" r:id="rId39"/>
-    <hyperlink ref="A40" r:id="rId40"/>
+    <hyperlink ref="A27" r:id="rId40"/>
     <hyperlink ref="A41" r:id="rId41"/>
-    <hyperlink ref="A38" r:id="rId42"/>
-    <hyperlink ref="A36" r:id="rId43"/>
-    <hyperlink ref="A35" r:id="rId44"/>
-    <hyperlink ref="A30" r:id="rId45"/>
-    <hyperlink ref="A31" r:id="rId46"/>
-    <hyperlink ref="A27" r:id="rId47"/>
+    <hyperlink ref="A40" r:id="rId42"/>
+    <hyperlink ref="A38" r:id="rId43"/>
+    <hyperlink ref="A37" r:id="rId44"/>
+    <hyperlink ref="A32" r:id="rId45"/>
+    <hyperlink ref="A33" r:id="rId46"/>
+    <hyperlink ref="A30" r:id="rId47"/>
     <hyperlink ref="A43" r:id="rId48"/>
     <hyperlink ref="A44" r:id="rId49"/>
     <hyperlink ref="A45" r:id="rId50"/>
-    <hyperlink ref="A37" r:id="rId51"/>
-    <hyperlink ref="A33" r:id="rId52"/>
+    <hyperlink ref="A39" r:id="rId51"/>
+    <hyperlink ref="A35" r:id="rId52"/>
     <hyperlink ref="A46" r:id="rId53"/>
     <hyperlink ref="A47" r:id="rId54"/>
-    <hyperlink ref="A32" r:id="rId55"/>
-    <hyperlink ref="A34" r:id="rId56"/>
+    <hyperlink ref="A34" r:id="rId55"/>
+    <hyperlink ref="A36" r:id="rId56"/>
     <hyperlink ref="A48" r:id="rId57"/>
     <hyperlink ref="A49" r:id="rId58"/>
-    <hyperlink ref="A28" r:id="rId59"/>
+    <hyperlink ref="A31" r:id="rId59"/>
     <hyperlink ref="A50" r:id="rId60"/>
     <hyperlink ref="A51" r:id="rId61"/>
     <hyperlink ref="A52" r:id="rId62"/>
-    <hyperlink ref="A14" r:id="rId63"/>
-    <hyperlink ref="A23" r:id="rId64"/>
+    <hyperlink ref="A28" r:id="rId63"/>
+    <hyperlink ref="A29" r:id="rId64"/>
     <hyperlink ref="A53" r:id="rId65"/>
     <hyperlink ref="A55" r:id="rId66"/>
     <hyperlink ref="A56" r:id="rId67"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$73</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -356,10 +356,19 @@
     <t>Check back</t>
   </si>
   <si>
-    <t>Practice</t>
-  </si>
-  <si>
     <t>Review</t>
+  </si>
+  <si>
+    <t>Practiced</t>
+  </si>
+  <si>
+    <t>Complexities</t>
+  </si>
+  <si>
+    <t>O(1) T / O(h) S</t>
+  </si>
+  <si>
+    <t>O(N) T  / O(1) S</t>
   </si>
 </sst>
 </file>
@@ -755,12 +764,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,11 +782,12 @@
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,38 +819,38 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" t="s">
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -851,233 +861,239 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -1103,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -1113,6 +1129,9 @@
       <c r="C14" t="s">
         <v>83</v>
       </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
@@ -1122,510 +1141,519 @@
       <c r="I14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
         <v>15</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
+      <c r="E35" s="3">
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
         <v>7</v>
       </c>
       <c r="H36" t="s">
@@ -1634,19 +1662,22 @@
       <c r="I36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>78</v>
+      <c r="J36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="C37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2</v>
+      <c r="E37" s="3">
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
@@ -1654,22 +1685,22 @@
       <c r="I37" t="s">
         <v>7</v>
       </c>
-      <c r="J37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -1677,19 +1708,22 @@
       <c r="I38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>7</v>
@@ -1697,21 +1731,24 @@
       <c r="I39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>7</v>
       </c>
       <c r="H40" t="s">
@@ -1720,50 +1757,62 @@
       <c r="I40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="J40" t="s">
+        <v>109</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -1771,9 +1820,6 @@
       <c r="F43" t="s">
         <v>7</v>
       </c>
-      <c r="G43" t="s">
-        <v>7</v>
-      </c>
       <c r="H43" t="s">
         <v>7</v>
       </c>
@@ -1781,36 +1827,48 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" t="s">
-        <v>7</v>
-      </c>
       <c r="H44" t="s">
         <v>7</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>56</v>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
       </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
       <c r="H45" t="s">
         <v>7</v>
       </c>
@@ -1818,9 +1876,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>33</v>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
@@ -1828,12 +1886,6 @@
       <c r="E46" s="4">
         <v>2</v>
       </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" t="s">
-        <v>7</v>
-      </c>
       <c r="H46" t="s">
         <v>7</v>
       </c>
@@ -1841,12 +1893,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>17</v>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
@@ -1855,32 +1907,38 @@
         <v>7</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
       <c r="H48" t="s">
         <v>7</v>
       </c>
       <c r="I48" t="s">
         <v>7</v>
       </c>
+      <c r="J48" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>29</v>
+      <c r="A49" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" s="4">
         <v>2</v>
@@ -1894,10 +1952,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -1911,10 +1969,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -1928,13 +1986,19 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
       </c>
       <c r="H52" t="s">
         <v>7</v>
@@ -1945,10 +2009,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -1962,64 +2026,58 @@
       <c r="I53" t="s">
         <v>7</v>
       </c>
-      <c r="J53" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>19</v>
+      <c r="A54" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
       </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
       <c r="H54" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
       </c>
-      <c r="G55" t="s">
-        <v>7</v>
-      </c>
       <c r="H55" t="s">
         <v>7</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
-      </c>
-      <c r="J55" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>7</v>
       </c>
       <c r="H56" t="s">
@@ -2028,33 +2086,33 @@
       <c r="I56" t="s">
         <v>7</v>
       </c>
+      <c r="J56" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>59</v>
+      <c r="A57" t="s">
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
       </c>
-      <c r="F57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" t="s">
-        <v>7</v>
-      </c>
       <c r="H57" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="J57" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -2062,34 +2120,31 @@
       <c r="E58" s="4">
         <v>2</v>
       </c>
-      <c r="G58" t="s">
-        <v>7</v>
-      </c>
       <c r="H58" t="s">
         <v>7</v>
       </c>
       <c r="I58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="5">
-        <v>3</v>
-      </c>
-      <c r="F59" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
       </c>
       <c r="G59" t="s">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I59" t="s">
         <v>7</v>
@@ -2097,14 +2152,20 @@
     </row>
     <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
       </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
       <c r="H60" t="s">
         <v>86</v>
       </c>
@@ -2114,10 +2175,10 @@
     </row>
     <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E61" s="5">
         <v>3</v>
@@ -2131,17 +2192,14 @@
     </row>
     <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="E62" s="5">
         <v>3</v>
       </c>
-      <c r="F62" t="s">
-        <v>7</v>
-      </c>
       <c r="H62" t="s">
         <v>86</v>
       </c>
@@ -2151,14 +2209,17 @@
     </row>
     <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="E63" s="5">
         <v>3</v>
       </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
       <c r="H63" t="s">
         <v>86</v>
       </c>
@@ -2168,10 +2229,10 @@
     </row>
     <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E64" s="5">
         <v>3</v>
@@ -2185,7 +2246,7 @@
     </row>
     <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -2202,20 +2263,14 @@
     </row>
     <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" s="5">
         <v>3</v>
       </c>
-      <c r="F66" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" t="s">
-        <v>7</v>
-      </c>
       <c r="H66" t="s">
         <v>86</v>
       </c>
@@ -2225,14 +2280,20 @@
     </row>
     <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E67" s="5">
         <v>3</v>
       </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
       <c r="H67" t="s">
         <v>86</v>
       </c>
@@ -2241,23 +2302,17 @@
       </c>
     </row>
     <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
-        <v>37</v>
+      <c r="A68" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
-      <c r="C68" t="s">
-        <v>92</v>
-      </c>
       <c r="E68" s="5">
         <v>3</v>
       </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
       <c r="H68" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
@@ -2358,92 +2413,89 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K73">
+  <autoFilter ref="A1:L73">
     <filterColumn colId="4">
       <filters blank="1">
         <filter val="1"/>
         <filter val="2"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-    <sortState ref="A3:K73">
-      <sortCondition ref="E1:E73"/>
+    <sortState ref="A2:L73">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A62" r:id="rId1" display=" Merge k Sorted Lists"/>
-    <hyperlink ref="A66" r:id="rId2" display=" Read N Characters Given Read4 II - Call multiple times"/>
-    <hyperlink ref="A59" r:id="rId3" display=" Integer to English Words"/>
+    <hyperlink ref="A63" r:id="rId1" display=" Merge k Sorted Lists"/>
+    <hyperlink ref="A67" r:id="rId2" display=" Read N Characters Given Read4 II - Call multiple times"/>
+    <hyperlink ref="A60" r:id="rId3" display=" Integer to English Words"/>
     <hyperlink ref="A71" r:id="rId4" display=" Valid Number"/>
     <hyperlink ref="A70" r:id="rId5" display=" Trapping Rain Water"/>
     <hyperlink ref="A72" r:id="rId6" display=" Wildcard Matching"/>
-    <hyperlink ref="A67" r:id="rId7" display=" Regular Expression Matching"/>
-    <hyperlink ref="A63" r:id="rId8" display=" Minimum Window Subsequence"/>
-    <hyperlink ref="A61" r:id="rId9" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
+    <hyperlink ref="A68" r:id="rId7" display=" Regular Expression Matching"/>
+    <hyperlink ref="A64" r:id="rId8" display=" Minimum Window Subsequence"/>
+    <hyperlink ref="A62" r:id="rId9" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
     <hyperlink ref="A69" r:id="rId10" display=" Serialize and Deserialize Binary Tree"/>
-    <hyperlink ref="A60" r:id="rId11" display=" LRU Cache"/>
-    <hyperlink ref="A64" r:id="rId12" display=" Minimum Window Substring"/>
-    <hyperlink ref="A65" r:id="rId13" display=" Palindrome Pairs"/>
-    <hyperlink ref="A2" r:id="rId14"/>
-    <hyperlink ref="A4" r:id="rId15"/>
-    <hyperlink ref="A5" r:id="rId16"/>
-    <hyperlink ref="A42" r:id="rId17"/>
-    <hyperlink ref="A3" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
+    <hyperlink ref="A61" r:id="rId11" display=" LRU Cache"/>
+    <hyperlink ref="A65" r:id="rId12" display=" Minimum Window Substring"/>
+    <hyperlink ref="A66" r:id="rId13" display=" Palindrome Pairs"/>
+    <hyperlink ref="A24" r:id="rId14"/>
+    <hyperlink ref="A18" r:id="rId15"/>
+    <hyperlink ref="A25" r:id="rId16"/>
+    <hyperlink ref="A49" r:id="rId17"/>
+    <hyperlink ref="A2" r:id="rId18"/>
+    <hyperlink ref="A27" r:id="rId19"/>
+    <hyperlink ref="A8" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="A3" r:id="rId22"/>
+    <hyperlink ref="A4" r:id="rId23"/>
+    <hyperlink ref="A28" r:id="rId24"/>
+    <hyperlink ref="A29" r:id="rId25"/>
     <hyperlink ref="A13" r:id="rId26"/>
     <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="A17" r:id="rId30"/>
-    <hyperlink ref="A18" r:id="rId31"/>
-    <hyperlink ref="A19" r:id="rId32"/>
-    <hyperlink ref="A20" r:id="rId33"/>
-    <hyperlink ref="A21" r:id="rId34"/>
-    <hyperlink ref="A22" r:id="rId35"/>
-    <hyperlink ref="A23" r:id="rId36"/>
-    <hyperlink ref="A24" r:id="rId37"/>
-    <hyperlink ref="A25" r:id="rId38"/>
-    <hyperlink ref="A26" r:id="rId39"/>
-    <hyperlink ref="A27" r:id="rId40"/>
-    <hyperlink ref="A41" r:id="rId41"/>
-    <hyperlink ref="A40" r:id="rId42"/>
-    <hyperlink ref="A38" r:id="rId43"/>
-    <hyperlink ref="A37" r:id="rId44"/>
-    <hyperlink ref="A32" r:id="rId45"/>
-    <hyperlink ref="A33" r:id="rId46"/>
-    <hyperlink ref="A30" r:id="rId47"/>
-    <hyperlink ref="A43" r:id="rId48"/>
-    <hyperlink ref="A44" r:id="rId49"/>
-    <hyperlink ref="A45" r:id="rId50"/>
-    <hyperlink ref="A39" r:id="rId51"/>
-    <hyperlink ref="A35" r:id="rId52"/>
-    <hyperlink ref="A46" r:id="rId53"/>
-    <hyperlink ref="A47" r:id="rId54"/>
-    <hyperlink ref="A34" r:id="rId55"/>
-    <hyperlink ref="A36" r:id="rId56"/>
-    <hyperlink ref="A48" r:id="rId57"/>
-    <hyperlink ref="A49" r:id="rId58"/>
-    <hyperlink ref="A31" r:id="rId59"/>
-    <hyperlink ref="A50" r:id="rId60"/>
-    <hyperlink ref="A51" r:id="rId61"/>
-    <hyperlink ref="A52" r:id="rId62"/>
-    <hyperlink ref="A28" r:id="rId63"/>
-    <hyperlink ref="A29" r:id="rId64"/>
-    <hyperlink ref="A53" r:id="rId65"/>
-    <hyperlink ref="A55" r:id="rId66"/>
-    <hyperlink ref="A56" r:id="rId67"/>
-    <hyperlink ref="A57" r:id="rId68"/>
-    <hyperlink ref="A58" r:id="rId69"/>
-    <hyperlink ref="A68" r:id="rId70"/>
-    <hyperlink ref="J21" r:id="rId71"/>
+    <hyperlink ref="A30" r:id="rId28"/>
+    <hyperlink ref="A31" r:id="rId29"/>
+    <hyperlink ref="A32" r:id="rId30"/>
+    <hyperlink ref="A33" r:id="rId31"/>
+    <hyperlink ref="A34" r:id="rId32"/>
+    <hyperlink ref="A35" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A37" r:id="rId35"/>
+    <hyperlink ref="A38" r:id="rId36"/>
+    <hyperlink ref="A5" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A43" r:id="rId41"/>
+    <hyperlink ref="A26" r:id="rId42"/>
+    <hyperlink ref="A22" r:id="rId43"/>
+    <hyperlink ref="A21" r:id="rId44"/>
+    <hyperlink ref="A16" r:id="rId45"/>
+    <hyperlink ref="A17" r:id="rId46"/>
+    <hyperlink ref="A9" r:id="rId47"/>
+    <hyperlink ref="A52" r:id="rId48"/>
+    <hyperlink ref="A53" r:id="rId49"/>
+    <hyperlink ref="A50" r:id="rId50"/>
+    <hyperlink ref="A23" r:id="rId51"/>
+    <hyperlink ref="A19" r:id="rId52"/>
+    <hyperlink ref="A45" r:id="rId53"/>
+    <hyperlink ref="A58" r:id="rId54"/>
+    <hyperlink ref="A15" r:id="rId55"/>
+    <hyperlink ref="A20" r:id="rId56"/>
+    <hyperlink ref="A55" r:id="rId57"/>
+    <hyperlink ref="A44" r:id="rId58"/>
+    <hyperlink ref="A10" r:id="rId59"/>
+    <hyperlink ref="A46" r:id="rId60"/>
+    <hyperlink ref="A47" r:id="rId61"/>
+    <hyperlink ref="A51" r:id="rId62"/>
+    <hyperlink ref="A6" r:id="rId63"/>
+    <hyperlink ref="A7" r:id="rId64"/>
+    <hyperlink ref="A56" r:id="rId65"/>
+    <hyperlink ref="A48" r:id="rId66"/>
+    <hyperlink ref="A42" r:id="rId67"/>
+    <hyperlink ref="A54" r:id="rId68"/>
+    <hyperlink ref="A59" r:id="rId69"/>
+    <hyperlink ref="A11" r:id="rId70"/>
+    <hyperlink ref="J36" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId72"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="114">
   <si>
     <t>Title</t>
   </si>
@@ -767,9 +767,9 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,15 +825,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -845,12 +845,15 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>108</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -861,25 +864,19 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>93</v>
+      <c r="A4" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -887,22 +884,25 @@
       <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>91</v>
+      <c r="A5" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -910,106 +910,109 @@
       <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
+      <c r="E5" s="4">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
+      <c r="E9" s="3">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -1019,18 +1022,27 @@
       </c>
       <c r="I9" t="s">
         <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
       </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
       <c r="E10" s="4">
         <v>2</v>
       </c>
@@ -1041,9 +1053,6 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1071,8 +1080,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>82</v>
+      <c r="A12" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1080,34 +1089,37 @@
       <c r="C12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
       </c>
       <c r="H12" t="s">
         <v>7</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
+      <c r="A13" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="D13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -1115,22 +1127,16 @@
       <c r="I13" t="s">
         <v>7</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1145,35 +1151,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
+        <v>94</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1181,11 +1187,11 @@
       <c r="C16" t="s">
         <v>83</v>
       </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="4">
         <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
       </c>
       <c r="H16" t="s">
         <v>7</v>
@@ -1196,36 +1202,42 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1242,137 +1254,137 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
       <c r="C22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>7</v>
       </c>
       <c r="I22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K22">
         <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
+      <c r="E24" s="4">
+        <v>2</v>
       </c>
       <c r="H24" t="s">
         <v>7</v>
@@ -1381,27 +1393,24 @@
         <v>7</v>
       </c>
       <c r="K24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -1415,19 +1424,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>7</v>
       </c>
       <c r="H26" t="s">
         <v>7</v>
@@ -1438,35 +1444,41 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
         <v>7</v>
       </c>
       <c r="H28" t="s">
@@ -1474,23 +1486,20 @@
       </c>
       <c r="I28" t="s">
         <v>7</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
@@ -1502,32 +1511,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -1542,21 +1563,21 @@
         <v>7</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
+      <c r="E32" s="4">
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -1567,36 +1588,36 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
       <c r="H33" t="s">
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -1604,9 +1625,6 @@
       <c r="F34" t="s">
         <v>7</v>
       </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
       <c r="H34" t="s">
         <v>7</v>
       </c>
@@ -1617,12 +1635,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>95</v>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>94</v>
@@ -1634,51 +1652,45 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
         <v>15</v>
       </c>
-      <c r="J35" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="K36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>74</v>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
       <c r="H37" t="s">
         <v>7</v>
       </c>
@@ -1686,15 +1698,15 @@
         <v>7</v>
       </c>
       <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>94</v>
@@ -1712,133 +1724,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" t="s">
-        <v>109</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2</v>
+      <c r="E44" s="3">
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>7</v>
@@ -1849,13 +1858,10 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>33</v>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1863,294 +1869,312 @@
       <c r="E45" s="4">
         <v>2</v>
       </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>7</v>
-      </c>
       <c r="H45" t="s">
         <v>7</v>
       </c>
       <c r="I45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
       </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
       <c r="H46" t="s">
         <v>7</v>
       </c>
       <c r="I46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
       </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
       <c r="H47" t="s">
         <v>7</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>43</v>
+      <c r="J47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
-      <c r="G48" t="s">
-        <v>7</v>
-      </c>
       <c r="H48" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="4">
-        <v>2</v>
-      </c>
-      <c r="H49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="E52" s="4">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-      <c r="H50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="H51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="4">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="E55" s="4">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="E56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="4">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2</v>
-      </c>
-      <c r="H55" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
       <c r="E57" s="4">
         <v>2</v>
       </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2</v>
-      </c>
-      <c r="H58" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
-      <c r="C59" t="s">
-        <v>87</v>
-      </c>
       <c r="E59" s="4">
         <v>2</v>
       </c>
-      <c r="G59" t="s">
-        <v>7</v>
-      </c>
       <c r="H59" t="s">
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -2173,7 +2197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>46</v>
       </c>
@@ -2190,7 +2214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>50</v>
       </c>
@@ -2207,7 +2231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -2227,7 +2251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
@@ -2392,7 +2416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -2415,13 +2439,12 @@
   </sheetData>
   <autoFilter ref="A1:L73">
     <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="1"/>
+      <filters>
         <filter val="2"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:L73">
-      <sortCondition ref="C1"/>
+    <sortState ref="A4:L59">
+      <sortCondition ref="C1:C73"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -2438,64 +2461,64 @@
     <hyperlink ref="A61" r:id="rId11" display=" LRU Cache"/>
     <hyperlink ref="A65" r:id="rId12" display=" Minimum Window Substring"/>
     <hyperlink ref="A66" r:id="rId13" display=" Palindrome Pairs"/>
-    <hyperlink ref="A24" r:id="rId14"/>
-    <hyperlink ref="A18" r:id="rId15"/>
-    <hyperlink ref="A25" r:id="rId16"/>
-    <hyperlink ref="A49" r:id="rId17"/>
-    <hyperlink ref="A2" r:id="rId18"/>
-    <hyperlink ref="A27" r:id="rId19"/>
-    <hyperlink ref="A8" r:id="rId20"/>
-    <hyperlink ref="A12" r:id="rId21"/>
-    <hyperlink ref="A3" r:id="rId22"/>
-    <hyperlink ref="A4" r:id="rId23"/>
-    <hyperlink ref="A28" r:id="rId24"/>
-    <hyperlink ref="A29" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A30" r:id="rId28"/>
-    <hyperlink ref="A31" r:id="rId29"/>
-    <hyperlink ref="A32" r:id="rId30"/>
-    <hyperlink ref="A33" r:id="rId31"/>
-    <hyperlink ref="A34" r:id="rId32"/>
-    <hyperlink ref="A35" r:id="rId33"/>
-    <hyperlink ref="A36" r:id="rId34"/>
-    <hyperlink ref="A37" r:id="rId35"/>
-    <hyperlink ref="A38" r:id="rId36"/>
-    <hyperlink ref="A5" r:id="rId37"/>
-    <hyperlink ref="A39" r:id="rId38"/>
-    <hyperlink ref="A40" r:id="rId39"/>
-    <hyperlink ref="A41" r:id="rId40"/>
-    <hyperlink ref="A43" r:id="rId41"/>
-    <hyperlink ref="A26" r:id="rId42"/>
-    <hyperlink ref="A22" r:id="rId43"/>
-    <hyperlink ref="A21" r:id="rId44"/>
-    <hyperlink ref="A16" r:id="rId45"/>
-    <hyperlink ref="A17" r:id="rId46"/>
-    <hyperlink ref="A9" r:id="rId47"/>
-    <hyperlink ref="A52" r:id="rId48"/>
-    <hyperlink ref="A53" r:id="rId49"/>
-    <hyperlink ref="A50" r:id="rId50"/>
-    <hyperlink ref="A23" r:id="rId51"/>
-    <hyperlink ref="A19" r:id="rId52"/>
-    <hyperlink ref="A45" r:id="rId53"/>
-    <hyperlink ref="A58" r:id="rId54"/>
-    <hyperlink ref="A15" r:id="rId55"/>
-    <hyperlink ref="A20" r:id="rId56"/>
-    <hyperlink ref="A55" r:id="rId57"/>
-    <hyperlink ref="A44" r:id="rId58"/>
-    <hyperlink ref="A10" r:id="rId59"/>
-    <hyperlink ref="A46" r:id="rId60"/>
-    <hyperlink ref="A47" r:id="rId61"/>
-    <hyperlink ref="A51" r:id="rId62"/>
-    <hyperlink ref="A6" r:id="rId63"/>
-    <hyperlink ref="A7" r:id="rId64"/>
-    <hyperlink ref="A56" r:id="rId65"/>
-    <hyperlink ref="A48" r:id="rId66"/>
-    <hyperlink ref="A42" r:id="rId67"/>
-    <hyperlink ref="A54" r:id="rId68"/>
-    <hyperlink ref="A59" r:id="rId69"/>
+    <hyperlink ref="A30" r:id="rId14"/>
+    <hyperlink ref="A25" r:id="rId15"/>
+    <hyperlink ref="A31" r:id="rId16"/>
+    <hyperlink ref="A52" r:id="rId17"/>
+    <hyperlink ref="A3" r:id="rId18"/>
+    <hyperlink ref="A33" r:id="rId19"/>
+    <hyperlink ref="A18" r:id="rId20"/>
+    <hyperlink ref="A20" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="A14" r:id="rId23"/>
+    <hyperlink ref="A34" r:id="rId24"/>
+    <hyperlink ref="A35" r:id="rId25"/>
+    <hyperlink ref="A21" r:id="rId26"/>
+    <hyperlink ref="A22" r:id="rId27"/>
+    <hyperlink ref="A36" r:id="rId28"/>
+    <hyperlink ref="A37" r:id="rId29"/>
+    <hyperlink ref="A38" r:id="rId30"/>
+    <hyperlink ref="A39" r:id="rId31"/>
+    <hyperlink ref="A40" r:id="rId32"/>
+    <hyperlink ref="A2" r:id="rId33"/>
+    <hyperlink ref="A8" r:id="rId34"/>
+    <hyperlink ref="A41" r:id="rId35"/>
+    <hyperlink ref="A42" r:id="rId36"/>
+    <hyperlink ref="A15" r:id="rId37"/>
+    <hyperlink ref="A43" r:id="rId38"/>
+    <hyperlink ref="A7" r:id="rId39"/>
+    <hyperlink ref="A44" r:id="rId40"/>
+    <hyperlink ref="A49" r:id="rId41"/>
+    <hyperlink ref="A28" r:id="rId42"/>
+    <hyperlink ref="A24" r:id="rId43"/>
+    <hyperlink ref="A23" r:id="rId44"/>
+    <hyperlink ref="A13" r:id="rId45"/>
+    <hyperlink ref="A16" r:id="rId46"/>
+    <hyperlink ref="A10" r:id="rId47"/>
+    <hyperlink ref="A55" r:id="rId48"/>
+    <hyperlink ref="A56" r:id="rId49"/>
+    <hyperlink ref="A53" r:id="rId50"/>
+    <hyperlink ref="A26" r:id="rId51"/>
+    <hyperlink ref="A17" r:id="rId52"/>
+    <hyperlink ref="A50" r:id="rId53"/>
+    <hyperlink ref="A59" r:id="rId54"/>
+    <hyperlink ref="A12" r:id="rId55"/>
+    <hyperlink ref="A19" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A32" r:id="rId58"/>
+    <hyperlink ref="A6" r:id="rId59"/>
+    <hyperlink ref="A45" r:id="rId60"/>
+    <hyperlink ref="A51" r:id="rId61"/>
+    <hyperlink ref="A54" r:id="rId62"/>
+    <hyperlink ref="A4" r:id="rId63"/>
+    <hyperlink ref="A5" r:id="rId64"/>
+    <hyperlink ref="A47" r:id="rId65"/>
+    <hyperlink ref="A46" r:id="rId66"/>
+    <hyperlink ref="A29" r:id="rId67"/>
+    <hyperlink ref="A57" r:id="rId68"/>
+    <hyperlink ref="A27" r:id="rId69"/>
     <hyperlink ref="A11" r:id="rId70"/>
-    <hyperlink ref="J36" r:id="rId71"/>
+    <hyperlink ref="J8" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId72"/>

--- a/list.xlsx
+++ b/list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="115">
   <si>
     <t>Title</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>O(N) T  / O(1) S</t>
+  </si>
+  <si>
+    <t>Mergesort</t>
   </si>
 </sst>
 </file>
@@ -767,9 +770,9 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +785,7 @@
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" customWidth="1"/>
   </cols>
@@ -825,69 +828,72 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>109</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
       <c r="H4" t="s">
@@ -901,17 +907,17 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>70</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -919,16 +925,16 @@
       <c r="I5" t="s">
         <v>7</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>77</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -942,22 +948,16 @@
       <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -968,48 +968,42 @@
       <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" t="s">
-        <v>109</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" t="s">
         <v>7</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="K8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -1017,17 +1011,17 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" t="s">
         <v>7</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1055,20 +1049,23 @@
       <c r="I10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>37</v>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="5">
         <v>3</v>
       </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
       <c r="F11" t="s">
         <v>7</v>
       </c>
@@ -1077,47 +1074,56 @@
       </c>
       <c r="I11" t="s">
         <v>7</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
       </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
       <c r="H12" t="s">
         <v>7</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
       </c>
-      <c r="J12" t="s">
-        <v>7</v>
+      <c r="K12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
       <c r="G13" t="s">
         <v>7</v>
       </c>
@@ -1126,72 +1132,63 @@
       </c>
       <c r="I13" t="s">
         <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
       </c>
       <c r="H16" t="s">
         <v>7</v>
@@ -1199,73 +1196,79 @@
       <c r="I16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
-      </c>
       <c r="E17" s="4">
         <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
       </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" t="s">
         <v>7</v>
       </c>
       <c r="I17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>75</v>
+      <c r="J17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" t="s">
         <v>7</v>
       </c>
       <c r="I18" t="s">
         <v>7</v>
       </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>7</v>
       </c>
       <c r="H19" t="s">
@@ -1274,94 +1277,91 @@
       <c r="I19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>82</v>
+      <c r="K19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
       </c>
       <c r="H20" t="s">
         <v>7</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="5">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
       <c r="H21" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
         <v>7</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>78</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
       </c>
       <c r="H23" t="s">
         <v>7</v>
@@ -1369,45 +1369,39 @@
       <c r="I23" t="s">
         <v>7</v>
       </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>42</v>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>47</v>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -1416,21 +1410,24 @@
         <v>7</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>99</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -1441,121 +1438,112 @@
       <c r="I26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
+      <c r="E28" s="5">
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>34</v>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
       </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
         <v>7</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
         <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>73</v>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
@@ -1566,9 +1554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -1576,8 +1564,8 @@
       <c r="D32" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="4">
-        <v>2</v>
+      <c r="E32" s="3">
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -1588,108 +1576,96 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" t="s">
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
       </c>
       <c r="H37" t="s">
         <v>7</v>
@@ -1698,21 +1674,18 @@
         <v>7</v>
       </c>
       <c r="K37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
       </c>
       <c r="H38" t="s">
         <v>7</v>
@@ -1724,18 +1697,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>24</v>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
       </c>
       <c r="H39" t="s">
         <v>7</v>
@@ -1746,22 +1719,22 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="s">
-        <v>7</v>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
       </c>
       <c r="H40" t="s">
         <v>7</v>
@@ -1769,19 +1742,22 @@
       <c r="I40" t="s">
         <v>7</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>74</v>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
       </c>
       <c r="H41" t="s">
         <v>7</v>
@@ -1789,63 +1765,66 @@
       <c r="I41" t="s">
         <v>7</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
@@ -1859,35 +1838,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>35</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>7</v>
       </c>
       <c r="I45" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>43</v>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
       </c>
       <c r="G46" t="s">
         <v>7</v>
@@ -1898,65 +1880,56 @@
       <c r="I46" t="s">
         <v>7</v>
       </c>
-      <c r="J46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>71</v>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s">
         <v>7</v>
       </c>
-      <c r="J47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>19</v>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="E48" s="5">
+        <v>3</v>
       </c>
       <c r="H48" t="s">
         <v>86</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>23</v>
+      <c r="A49" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>7</v>
@@ -1964,36 +1937,39 @@
       <c r="I49" t="s">
         <v>7</v>
       </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>33</v>
+      <c r="A50" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
       </c>
-      <c r="F50" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" t="s">
-        <v>7</v>
-      </c>
       <c r="H50" t="s">
         <v>7</v>
       </c>
       <c r="I50" t="s">
         <v>7</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -2003,6 +1979,9 @@
       </c>
       <c r="I51" t="s">
         <v>7</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2024,501 +2003,580 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="5">
         <v>3</v>
       </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="4">
-        <v>2</v>
-      </c>
-      <c r="H54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" t="s">
-        <v>7</v>
+      <c r="E57" s="3">
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
       <c r="E58" s="4">
         <v>2</v>
       </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
       <c r="H58" t="s">
         <v>7</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" t="s">
+        <v>7</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="4">
-        <v>2</v>
-      </c>
-      <c r="H59" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="5">
-        <v>3</v>
-      </c>
-      <c r="F60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" t="s">
-        <v>86</v>
-      </c>
-      <c r="I60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="5">
-        <v>3</v>
-      </c>
-      <c r="H61" t="s">
-        <v>86</v>
-      </c>
-      <c r="I61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="5">
-        <v>3</v>
-      </c>
-      <c r="H62" t="s">
-        <v>86</v>
-      </c>
-      <c r="I62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>72</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>19</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="5">
-        <v>3</v>
-      </c>
-      <c r="F63" t="s">
-        <v>7</v>
+      <c r="E63" s="4">
+        <v>2</v>
       </c>
       <c r="H63" t="s">
         <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="5">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="5">
-        <v>3</v>
-      </c>
-      <c r="F67" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2</v>
       </c>
       <c r="G67" t="s">
         <v>7</v>
       </c>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I67" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>39</v>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>45</v>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="5">
-        <v>3</v>
-      </c>
-      <c r="G69" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2</v>
       </c>
       <c r="G70" t="s">
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>13</v>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s">
-        <v>7</v>
+      <c r="E73" s="4">
+        <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="I73" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L73">
     <filterColumn colId="4">
-      <filters>
+      <filters blank="1">
+        <filter val="1"/>
         <filter val="2"/>
       </filters>
     </filterColumn>
-    <sortState ref="A4:L59">
-      <sortCondition ref="C1:C73"/>
+    <sortState ref="A2:L73">
+      <sortCondition ref="F1:F73"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A63" r:id="rId1" display=" Merge k Sorted Lists"/>
-    <hyperlink ref="A67" r:id="rId2" display=" Read N Characters Given Read4 II - Call multiple times"/>
-    <hyperlink ref="A60" r:id="rId3" display=" Integer to English Words"/>
-    <hyperlink ref="A71" r:id="rId4" display=" Valid Number"/>
-    <hyperlink ref="A70" r:id="rId5" display=" Trapping Rain Water"/>
-    <hyperlink ref="A72" r:id="rId6" display=" Wildcard Matching"/>
-    <hyperlink ref="A68" r:id="rId7" display=" Regular Expression Matching"/>
-    <hyperlink ref="A64" r:id="rId8" display=" Minimum Window Subsequence"/>
-    <hyperlink ref="A62" r:id="rId9" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
-    <hyperlink ref="A69" r:id="rId10" display=" Serialize and Deserialize Binary Tree"/>
-    <hyperlink ref="A61" r:id="rId11" display=" LRU Cache"/>
-    <hyperlink ref="A65" r:id="rId12" display=" Minimum Window Substring"/>
-    <hyperlink ref="A66" r:id="rId13" display=" Palindrome Pairs"/>
-    <hyperlink ref="A30" r:id="rId14"/>
-    <hyperlink ref="A25" r:id="rId15"/>
-    <hyperlink ref="A31" r:id="rId16"/>
+    <hyperlink ref="A56" r:id="rId1" display=" Merge k Sorted Lists"/>
+    <hyperlink ref="A29" r:id="rId2" display=" Read N Characters Given Read4 II - Call multiple times"/>
+    <hyperlink ref="A46" r:id="rId3"/>
+    <hyperlink ref="A15" r:id="rId4" display=" Valid Number"/>
+    <hyperlink ref="A14" r:id="rId5" display=" Trapping Rain Water"/>
+    <hyperlink ref="A22" r:id="rId6" display=" Wildcard Matching"/>
+    <hyperlink ref="A21" r:id="rId7" display=" Regular Expression Matching"/>
+    <hyperlink ref="A34" r:id="rId8" display=" Minimum Window Subsequence"/>
+    <hyperlink ref="A33" r:id="rId9" display=" Maximum Sum of 3 Non-Overlapping Subarrays"/>
+    <hyperlink ref="A30" r:id="rId10" display=" Serialize and Deserialize Binary Tree"/>
+    <hyperlink ref="A28" r:id="rId11" display=" LRU Cache"/>
+    <hyperlink ref="A47" r:id="rId12" display=" Minimum Window Substring"/>
+    <hyperlink ref="A48" r:id="rId13" display=" Palindrome Pairs"/>
+    <hyperlink ref="A2" r:id="rId14"/>
+    <hyperlink ref="A43" r:id="rId15"/>
+    <hyperlink ref="A23" r:id="rId16"/>
     <hyperlink ref="A52" r:id="rId17"/>
-    <hyperlink ref="A3" r:id="rId18"/>
-    <hyperlink ref="A33" r:id="rId19"/>
-    <hyperlink ref="A18" r:id="rId20"/>
-    <hyperlink ref="A20" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A14" r:id="rId23"/>
-    <hyperlink ref="A34" r:id="rId24"/>
-    <hyperlink ref="A35" r:id="rId25"/>
-    <hyperlink ref="A21" r:id="rId26"/>
-    <hyperlink ref="A22" r:id="rId27"/>
-    <hyperlink ref="A36" r:id="rId28"/>
-    <hyperlink ref="A37" r:id="rId29"/>
-    <hyperlink ref="A38" r:id="rId30"/>
-    <hyperlink ref="A39" r:id="rId31"/>
-    <hyperlink ref="A40" r:id="rId32"/>
-    <hyperlink ref="A2" r:id="rId33"/>
-    <hyperlink ref="A8" r:id="rId34"/>
-    <hyperlink ref="A41" r:id="rId35"/>
-    <hyperlink ref="A42" r:id="rId36"/>
-    <hyperlink ref="A15" r:id="rId37"/>
-    <hyperlink ref="A43" r:id="rId38"/>
-    <hyperlink ref="A7" r:id="rId39"/>
-    <hyperlink ref="A44" r:id="rId40"/>
-    <hyperlink ref="A49" r:id="rId41"/>
-    <hyperlink ref="A28" r:id="rId42"/>
-    <hyperlink ref="A24" r:id="rId43"/>
-    <hyperlink ref="A23" r:id="rId44"/>
-    <hyperlink ref="A13" r:id="rId45"/>
-    <hyperlink ref="A16" r:id="rId46"/>
+    <hyperlink ref="A54" r:id="rId18"/>
+    <hyperlink ref="A45" r:id="rId19"/>
+    <hyperlink ref="A65" r:id="rId20"/>
+    <hyperlink ref="A25" r:id="rId21"/>
+    <hyperlink ref="A18" r:id="rId22"/>
+    <hyperlink ref="A55" r:id="rId23"/>
+    <hyperlink ref="A4" r:id="rId24"/>
+    <hyperlink ref="A49" r:id="rId25"/>
+    <hyperlink ref="A44" r:id="rId26"/>
+    <hyperlink ref="A66" r:id="rId27"/>
+    <hyperlink ref="A71" r:id="rId28"/>
+    <hyperlink ref="A19" r:id="rId29"/>
+    <hyperlink ref="A61" r:id="rId30"/>
+    <hyperlink ref="A5" r:id="rId31"/>
+    <hyperlink ref="A9" r:id="rId32"/>
+    <hyperlink ref="A27" r:id="rId33"/>
+    <hyperlink ref="A11" r:id="rId34"/>
+    <hyperlink ref="A72" r:id="rId35"/>
+    <hyperlink ref="A31" r:id="rId36"/>
+    <hyperlink ref="A57" r:id="rId37"/>
+    <hyperlink ref="A32" r:id="rId38"/>
+    <hyperlink ref="A3" r:id="rId39"/>
+    <hyperlink ref="A35" r:id="rId40"/>
+    <hyperlink ref="A6" r:id="rId41"/>
+    <hyperlink ref="A41" r:id="rId42"/>
+    <hyperlink ref="A39" r:id="rId43"/>
+    <hyperlink ref="A69" r:id="rId44"/>
+    <hyperlink ref="A67" r:id="rId45"/>
+    <hyperlink ref="A68" r:id="rId46"/>
     <hyperlink ref="A10" r:id="rId47"/>
-    <hyperlink ref="A55" r:id="rId48"/>
-    <hyperlink ref="A56" r:id="rId49"/>
-    <hyperlink ref="A53" r:id="rId50"/>
-    <hyperlink ref="A26" r:id="rId51"/>
-    <hyperlink ref="A17" r:id="rId52"/>
-    <hyperlink ref="A50" r:id="rId53"/>
-    <hyperlink ref="A59" r:id="rId54"/>
-    <hyperlink ref="A12" r:id="rId55"/>
-    <hyperlink ref="A19" r:id="rId56"/>
-    <hyperlink ref="A58" r:id="rId57"/>
-    <hyperlink ref="A32" r:id="rId58"/>
-    <hyperlink ref="A6" r:id="rId59"/>
-    <hyperlink ref="A45" r:id="rId60"/>
-    <hyperlink ref="A51" r:id="rId61"/>
-    <hyperlink ref="A54" r:id="rId62"/>
-    <hyperlink ref="A4" r:id="rId63"/>
-    <hyperlink ref="A5" r:id="rId64"/>
-    <hyperlink ref="A47" r:id="rId65"/>
-    <hyperlink ref="A46" r:id="rId66"/>
-    <hyperlink ref="A29" r:id="rId67"/>
-    <hyperlink ref="A57" r:id="rId68"/>
-    <hyperlink ref="A27" r:id="rId69"/>
-    <hyperlink ref="A11" r:id="rId70"/>
-    <hyperlink ref="J8" r:id="rId71"/>
+    <hyperlink ref="A13" r:id="rId48"/>
+    <hyperlink ref="A53" r:id="rId49"/>
+    <hyperlink ref="A50" r:id="rId50"/>
+    <hyperlink ref="A40" r:id="rId51"/>
+    <hyperlink ref="A12" r:id="rId52"/>
+    <hyperlink ref="A8" r:id="rId53"/>
+    <hyperlink ref="A73" r:id="rId54"/>
+    <hyperlink ref="A26" r:id="rId55"/>
+    <hyperlink ref="A60" r:id="rId56"/>
+    <hyperlink ref="A64" r:id="rId57"/>
+    <hyperlink ref="A36" r:id="rId58"/>
+    <hyperlink ref="A20" r:id="rId59"/>
+    <hyperlink ref="A37" r:id="rId60"/>
+    <hyperlink ref="A38" r:id="rId61"/>
+    <hyperlink ref="A51" r:id="rId62"/>
+    <hyperlink ref="A58" r:id="rId63"/>
+    <hyperlink ref="A59" r:id="rId64"/>
+    <hyperlink ref="A62" r:id="rId65"/>
+    <hyperlink ref="A42" r:id="rId66"/>
+    <hyperlink ref="A7" r:id="rId67"/>
+    <hyperlink ref="A17" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A16" r:id="rId70"/>
+    <hyperlink ref="J11" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId72"/>
